--- a/app/data/static/params/mascarpone_test.xlsx
+++ b/app/data/static/params/mascarpone_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -79,6 +79,9 @@
     <t xml:space="preserve">Выход</t>
   </si>
   <si>
+    <t xml:space="preserve">pumping_off_pause_time</t>
+  </si>
+  <si>
     <t xml:space="preserve">Коэффициент</t>
   </si>
   <si>
@@ -100,22 +103,25 @@
     <t xml:space="preserve">Unagrande</t>
   </si>
   <si>
-    <t xml:space="preserve">[10,5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15,10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10,10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[30,20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[500,300]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[255,225]</t>
+    <t xml:space="preserve">[10,5,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15,10,15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10,10,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30,20,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[500,300,1000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[255,225,600]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,0,10]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000079142</t>
@@ -196,13 +202,13 @@
     <t xml:space="preserve">Сливки</t>
   </si>
   <si>
-    <t xml:space="preserve">[0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[30,30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[250,250]</t>
+    <t xml:space="preserve">[0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30,30,30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[250,250,250]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000090708</t>
@@ -224,6 +230,15 @@
   </si>
   <si>
     <t xml:space="preserve">Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маскарпоне "Зеленая Линия ", 80%, 0,25 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зеленая Линия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098195</t>
   </si>
 </sst>
 </file>
@@ -259,13 +274,11 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -330,12 +343,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -355,17 +368,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,7 +386,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -434,6 +445,9 @@
       </c>
       <c r="W1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -441,22 +455,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0.25</v>
@@ -468,31 +482,34 @@
         <v>480</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>32</v>
+      <c r="X2" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,22 +517,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0.25</v>
@@ -527,31 +544,34 @@
         <v>480</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W3" s="0" t="s">
-        <v>35</v>
+      <c r="X3" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,22 +579,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0.5</v>
@@ -586,31 +606,34 @@
         <v>480</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W4" s="0" t="s">
-        <v>37</v>
+      <c r="X4" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,22 +641,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0.25</v>
@@ -645,31 +668,34 @@
         <v>480</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W5" s="0" t="s">
-        <v>40</v>
+      <c r="X5" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,25 +703,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0.2</v>
@@ -707,31 +733,34 @@
         <v>480</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="W6" s="0" t="s">
-        <v>43</v>
+      <c r="X6" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,22 +768,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.25</v>
@@ -766,31 +795,34 @@
         <v>480</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W7" s="0" t="s">
-        <v>46</v>
+      <c r="X7" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,22 +830,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0.25</v>
@@ -825,31 +857,34 @@
         <v>480</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="0" t="s">
-        <v>49</v>
+      <c r="X8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,22 +892,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0.5</v>
@@ -884,31 +919,34 @@
         <v>480</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="0" t="s">
-        <v>52</v>
+      <c r="X9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,25 +954,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0.2</v>
@@ -946,31 +984,34 @@
         <v>480</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="W10" s="0" t="s">
-        <v>55</v>
+      <c r="X10" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,22 +1019,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0.5</v>
@@ -1005,31 +1046,34 @@
         <v>300</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W11" s="0" t="s">
-        <v>61</v>
+      <c r="X11" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,22 +1081,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0.25</v>
@@ -1064,31 +1108,34 @@
         <v>300</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W12" s="0" t="s">
-        <v>63</v>
+      <c r="X12" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,22 +1143,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0.25</v>
@@ -1123,54 +1170,57 @@
         <v>300</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W13" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X13" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
+      <c r="B14" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0.25</v>
@@ -1182,36 +1232,101 @@
         <v>480</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="O15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" s="0" t="s">
+      <c r="Q15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="S15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="T15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W14" s="0" t="s">
-        <v>32</v>
+      <c r="X15" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/app/data/static/params/mascarpone_test.xlsx
+++ b/app/data/static/params/mascarpone_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="75">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">pumping_off_pause_time</t>
   </si>
   <si>
+    <t xml:space="preserve">pumping_off_2_time</t>
+  </si>
+  <si>
     <t xml:space="preserve">Коэффициент</t>
   </si>
   <si>
@@ -112,7 +115,7 @@
     <t xml:space="preserve">[10,10,10]</t>
   </si>
   <si>
-    <t xml:space="preserve">[30,20,0]</t>
+    <t xml:space="preserve">[30,20,25]</t>
   </si>
   <si>
     <t xml:space="preserve">[500,300,1000]</t>
@@ -122,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">[0,0,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,0,25]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000079142</t>
@@ -248,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -277,12 +283,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,10 +344,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,10 +364,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T26" activeCellId="0" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,28 +445,31 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0.25</v>
@@ -482,34 +481,37 @@
         <v>480</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="0" t="s">
-        <v>34</v>
+      <c r="Y2" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,22 +519,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0.25</v>
@@ -544,34 +546,37 @@
         <v>480</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X3" s="0" t="s">
-        <v>37</v>
+      <c r="Y3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,22 +584,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0.5</v>
@@ -606,34 +611,37 @@
         <v>480</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X4" s="0" t="s">
-        <v>39</v>
+      <c r="Y4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,22 +649,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0.25</v>
@@ -668,34 +676,37 @@
         <v>480</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X5" s="0" t="s">
-        <v>42</v>
+      <c r="Y5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,25 +714,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0.2</v>
@@ -733,34 +744,37 @@
         <v>480</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="X6" s="0" t="s">
-        <v>45</v>
+      <c r="Y6" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,22 +782,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.25</v>
@@ -795,34 +809,37 @@
         <v>480</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X7" s="0" t="s">
-        <v>48</v>
+      <c r="Y7" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,22 +847,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0.25</v>
@@ -857,34 +874,37 @@
         <v>480</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X8" s="0" t="s">
-        <v>51</v>
+      <c r="Y8" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,22 +912,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0.5</v>
@@ -919,34 +939,37 @@
         <v>480</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X9" s="0" t="s">
-        <v>54</v>
+      <c r="Y9" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,25 +977,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0.2</v>
@@ -984,34 +1007,37 @@
         <v>480</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="X10" s="0" t="s">
-        <v>57</v>
+      <c r="Y10" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,22 +1045,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0.5</v>
@@ -1046,34 +1072,37 @@
         <v>300</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="U11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X11" s="0" t="s">
-        <v>63</v>
+      <c r="Y11" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,22 +1110,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0.25</v>
@@ -1108,34 +1137,37 @@
         <v>300</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X12" s="0" t="s">
-        <v>65</v>
+      <c r="Y12" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,22 +1175,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0.25</v>
@@ -1170,34 +1202,37 @@
         <v>300</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="U13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X13" s="0" t="s">
-        <v>67</v>
+      <c r="Y13" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,22 +1240,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0.25</v>
@@ -1232,34 +1267,37 @@
         <v>480</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>30</v>
+        <v>30</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="U14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X14" s="0" t="s">
-        <v>34</v>
+      <c r="Y14" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,22 +1305,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0.25</v>
@@ -1294,34 +1332,37 @@
         <v>480</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>30</v>
+        <v>30</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="U15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X15" s="0" t="s">
-        <v>72</v>
+      <c r="Y15" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone_test.xlsx
+++ b/app/data/static/params/mascarpone_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">Выход</t>
   </si>
   <si>
-    <t xml:space="preserve">pumping_off_pause_time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Коэффициент</t>
   </si>
   <si>
@@ -103,25 +100,22 @@
     <t xml:space="preserve">Unagrande</t>
   </si>
   <si>
-    <t xml:space="preserve">[10,5,10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15,10,15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10,10,10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[30,20,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[500,300,1000]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[255,225,600]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,0,10]</t>
+    <t xml:space="preserve">[10,5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30,20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[500,300]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[255,225]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000079142</t>
@@ -202,13 +196,13 @@
     <t xml:space="preserve">Сливки</t>
   </si>
   <si>
-    <t xml:space="preserve">[0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[30,30,30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[250,250,250]</t>
+    <t xml:space="preserve">[0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30,30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[250,250]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000090708</t>
@@ -230,15 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">Нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маскарпоне "Зеленая Линия ", 80%, 0,25 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зеленая Линия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Н0000098195</t>
   </si>
 </sst>
 </file>
@@ -274,11 +259,13 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -343,12 +330,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -368,15 +355,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,7 +375,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -445,9 +434,6 @@
       </c>
       <c r="W1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -455,22 +441,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0.25</v>
@@ -482,34 +468,31 @@
         <v>480</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="U2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,22 +500,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0.25</v>
@@ -544,34 +527,31 @@
         <v>480</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="T3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>33</v>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X3" s="0" t="s">
-        <v>37</v>
+      <c r="W3" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,22 +559,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0.5</v>
@@ -606,34 +586,31 @@
         <v>480</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>33</v>
+      <c r="U4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X4" s="0" t="s">
-        <v>39</v>
+      <c r="W4" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,22 +618,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0.25</v>
@@ -668,34 +645,31 @@
         <v>480</v>
       </c>
       <c r="O5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="T5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>33</v>
+      <c r="U5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X5" s="0" t="s">
-        <v>42</v>
+      <c r="W5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,25 +677,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0.2</v>
@@ -733,34 +707,31 @@
         <v>480</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>33</v>
+      <c r="U6" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="X6" s="0" t="s">
-        <v>45</v>
+      <c r="W6" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,22 +739,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.25</v>
@@ -795,34 +766,31 @@
         <v>480</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="T7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>33</v>
+      <c r="U7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X7" s="0" t="s">
-        <v>48</v>
+      <c r="W7" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,22 +798,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0.25</v>
@@ -857,34 +825,31 @@
         <v>480</v>
       </c>
       <c r="O8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="S8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="T8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>33</v>
+      <c r="U8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X8" s="0" t="s">
-        <v>51</v>
+      <c r="W8" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,22 +857,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0.5</v>
@@ -919,34 +884,31 @@
         <v>480</v>
       </c>
       <c r="O9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="S9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="T9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>33</v>
+      <c r="U9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X9" s="0" t="s">
-        <v>54</v>
+      <c r="W9" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,25 +916,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0.2</v>
@@ -984,34 +946,31 @@
         <v>480</v>
       </c>
       <c r="O10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="S10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="T10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>33</v>
+      <c r="U10" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W10" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="X10" s="0" t="s">
-        <v>57</v>
+      <c r="W10" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,22 +978,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0.5</v>
@@ -1046,34 +1005,31 @@
         <v>300</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="U11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="U11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,22 +1037,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0.25</v>
@@ -1108,34 +1064,31 @@
         <v>300</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="R12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>60</v>
+      <c r="U12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X12" s="0" t="s">
-        <v>65</v>
+      <c r="W12" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,22 +1096,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0.25</v>
@@ -1170,57 +1123,54 @@
         <v>300</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="R13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" s="0" t="s">
-        <v>60</v>
+      <c r="U13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X13" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W13" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>68</v>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0.25</v>
@@ -1232,101 +1182,36 @@
         <v>480</v>
       </c>
       <c r="O14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="S14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="T14" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="U14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
